--- a/biology/Médecine/Biologiste_médical/Biologiste_médical.xlsx
+++ b/biology/Médecine/Biologiste_médical/Biologiste_médical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biologiste_m%C3%A9dical</t>
+          <t>Biologiste_médical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le biologiste médical est un professionnel de santé spécialisé dans les analyses médicales effectuées sur des éléments issus du corps humain, le plus souvent des liquides biologiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biologiste_m%C3%A9dical</t>
+          <t>Biologiste_médical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,12 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En France, le terme biologiste médical, antérieurement "Directeur de laboratoire de biologie médicale" (Loi de 1975 modifiée en 2013) désigne un docteur en pharmacie ou en médecine ayant effectué une spécialisation de 4 ans en biologie médicale dans les laboratoires d'analyses médicales hospitaliers. Ce terme regroupe les termes de pharmacien-biologiste et de médecin-biologiste. Ce sont eux qui sont responsables des examens de biologie médicale devant la loi et qui dirigent les laboratoires. Leur profession est considérée comme une profession libérale dans le secteur privé.
-Principaux syndicats représentatifs
-Syndicat "Les Biologistes Médicaux" (les BIOMED)[1]
-Syndicat des biologistes (SDB)[2]
-Syndicat national des médecins biologistes (SNMB)
-Syndicat national des biologistes des hôpitaux (SNBH)[3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le terme biologiste médical, antérieurement "Directeur de laboratoire de biologie médicale" (Loi de 1975 modifiée en 2013) désigne un docteur en pharmacie ou en médecine ayant effectué une spécialisation de 4 ans en biologie médicale dans les laboratoires d'analyses médicales hospitaliers. Ce terme regroupe les termes de pharmacien-biologiste et de médecin-biologiste. Ce sont eux qui sont responsables des examens de biologie médicale devant la loi et qui dirigent les laboratoires. Leur profession est considérée comme une profession libérale dans le secteur privé.
+</t>
         </is>
       </c>
     </row>
@@ -528,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biologiste_m%C3%A9dical</t>
+          <t>Biologiste_médical</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>En Belgique</t>
+          <t>En France</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Belgique, le terme biologiste médical désigne un pharmacien ou un médecin ayant effectué une spécialisation de 5 ans en biologie clinique.
-</t>
+          <t>Principaux syndicats représentatifs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Syndicat "Les Biologistes Médicaux" (les BIOMED)
+Syndicat des biologistes (SDB)
+Syndicat national des médecins biologistes (SNMB)
+Syndicat national des biologistes des hôpitaux (SNBH)</t>
         </is>
       </c>
     </row>
@@ -559,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Biologiste_m%C3%A9dical</t>
+          <t>Biologiste_médical</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +592,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Au Canada</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Canada, ce terme désigne un bachelier en biologie médicale (équivalent à une licence en France) c'est-à-dire un scientifique spécialisé dans les sciences biomédicales. Certains d'entre eux travaillent comme technologistes médicaux dans les laboratoires médicaux sous la responsabilité des médecins de laboratoire (pathologistes, hémato-oncologues, microbiologistes médicaux ou médecins biochimistes) et/ou des biochimistes cliniques.
+          <t>En Belgique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, le terme biologiste médical désigne un pharmacien ou un médecin ayant effectué une spécialisation de 5 ans en biologie clinique.
 </t>
         </is>
       </c>
@@ -590,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Biologiste_m%C3%A9dical</t>
+          <t>Biologiste_médical</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +625,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Au Canada</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Canada, ce terme désigne un bachelier en biologie médicale (équivalent à une licence en France) c'est-à-dire un scientifique spécialisé dans les sciences biomédicales. Certains d'entre eux travaillent comme technologistes médicaux dans les laboratoires médicaux sous la responsabilité des médecins de laboratoire (pathologistes, hémato-oncologues, microbiologistes médicaux ou médecins biochimistes) et/ou des biochimistes cliniques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Biologiste_médical</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biologiste_m%C3%A9dical</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>En Haïti</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En Haïti, les biologistes médicaux sont des spécialistes de la médecine préventive qui ont la capacité de travailler dans les laboratoires médicaux à la recherche d'un diagnostic fiable. Formé à la Faculté de médecine et de pharmacie école de Biologie Médicale de l'Université d'État d'Haïti.
 </t>
